--- a/Lasten.xlsx
+++ b/Lasten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian Dibbets\Documents\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damian/School/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5883F2A5-2574-2145-AD51-C00A7F0A6647}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="22110" windowHeight="9645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Juni" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="December" sheetId="7" r:id="rId7"/>
     <sheet name="Jaar overzicht" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="42">
   <si>
     <t>Discord</t>
   </si>
@@ -148,12 +149,21 @@
   </si>
   <si>
     <t>elke week 10</t>
+  </si>
+  <si>
+    <t>Bioscoop snacks</t>
+  </si>
+  <si>
+    <t>S vossen eten</t>
+  </si>
+  <si>
+    <t>Sjoerd eten Rick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
@@ -319,8 +329,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,7 +346,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -631,25 +641,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -660,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -683,12 +693,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>24.99</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>6.7</v>
@@ -706,12 +716,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>0.83333333333333337</v>
+        <v>3.99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>26.75</v>
@@ -729,15 +739,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3.99</v>
+        <v>24.5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -752,12 +762,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>24.5</v>
+        <v>9.99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>19.989999999999998</v>
@@ -775,12 +785,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>9.99</v>
+        <v>13.99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>13.7</v>
@@ -795,13 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>13.99</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="1">
         <f>SUM(1.75, 1.8)</f>
         <v>3.55</v>
@@ -816,7 +820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>1.52</v>
       </c>
@@ -830,23 +834,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="1">
         <v>14.65</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1">
         <v>8.5500000000000007</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -854,7 +870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>26.1</v>
       </c>
@@ -862,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" s="1">
         <v>8.83</v>
       </c>
@@ -870,53 +886,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E25" s="1">
         <v>14.44</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E26" s="1">
         <f>SUM(E2:E17)</f>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E27" s="1">
         <f>SUM(A2:A18)</f>
-        <v>83.283333333333317</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
+        <v>58.293333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1">
-        <f>SUM(C2:C17)</f>
-        <v>192.54000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
+      <c r="E28" s="1">
+        <f>SUM(C2:C100)</f>
+        <v>239.34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="13">
-        <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>177.61666666666667</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E29" s="13">
+        <f>SUM(E25:E26)-(E27)-(E28)</f>
+        <v>212.80666666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="E23">
+  <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -932,19 +972,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -961,7 +1001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -976,7 +1016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -991,7 +1031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1006,7 +1046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1021,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1033,7 +1073,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1045,7 +1085,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1057,7 +1097,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1065,7 +1105,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1073,7 +1113,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1081,7 +1121,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1089,7 +1129,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1097,7 +1137,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1105,7 +1145,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1113,7 +1153,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1121,7 +1161,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1129,23 +1169,23 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="12">
-        <f>Juni!E23</f>
-        <v>177.61666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f>Juni!E29</f>
+        <v>212.80666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -1156,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -1167,7 +1207,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -1178,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -1186,7 +1226,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>94.333333333333357</v>
+        <v>129.52333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -1205,19 +1245,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1249,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1264,7 +1304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1279,7 +1319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1294,7 +1334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1306,7 +1346,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1318,7 +1358,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1330,7 +1370,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1338,7 +1378,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1346,7 +1386,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1354,7 +1394,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1362,7 +1402,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1370,7 +1410,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1378,7 +1418,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1386,7 +1426,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1394,7 +1434,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1402,12 +1442,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
@@ -1415,10 +1455,10 @@
       </c>
       <c r="E19" s="12">
         <f>Juli!E23</f>
-        <v>94.333333333333357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>129.52333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -1429,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -1440,7 +1480,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -1451,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -1459,7 +1499,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>11.05000000000004</v>
+        <v>46.239999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1478,19 +1518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1522,7 +1562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1537,7 +1577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1552,7 +1592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1567,7 +1607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1579,7 +1619,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1591,7 +1631,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1603,7 +1643,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1611,7 +1651,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1619,7 +1659,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1627,7 +1667,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1635,7 +1675,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1643,7 +1683,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1651,7 +1691,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1659,7 +1699,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1667,7 +1707,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1675,12 +1715,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
@@ -1688,10 +1728,10 @@
       </c>
       <c r="E19" s="12">
         <f>Augustus!E23</f>
-        <v>11.05000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46.239999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -1702,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -1713,7 +1753,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -1724,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -1732,7 +1772,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-72.233333333333277</v>
+        <v>-37.043333333333322</v>
       </c>
     </row>
   </sheetData>
@@ -1751,19 +1791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1795,7 +1835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1810,7 +1850,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1825,7 +1865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1840,7 +1880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1852,7 +1892,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1864,7 +1904,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1876,7 +1916,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1884,7 +1924,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1892,7 +1932,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1900,7 +1940,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1908,7 +1948,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1916,7 +1956,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1924,7 +1964,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1932,7 +1972,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1940,7 +1980,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1948,12 +1988,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
@@ -1961,10 +2001,10 @@
       </c>
       <c r="E19" s="12">
         <f>September!E23</f>
-        <v>-72.233333333333277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-37.043333333333322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -1975,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -1986,7 +2026,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -1997,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -2005,7 +2045,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-155.51666666666659</v>
+        <v>-120.32666666666664</v>
       </c>
     </row>
   </sheetData>
@@ -2024,19 +2064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2068,7 +2108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2083,7 +2123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2098,7 +2138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2113,7 +2153,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2125,7 +2165,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2137,7 +2177,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2149,7 +2189,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2157,7 +2197,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2165,7 +2205,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2173,7 +2213,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2181,7 +2221,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2189,7 +2229,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2197,7 +2237,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2205,7 +2245,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2213,7 +2253,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2221,12 +2261,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
@@ -2234,10 +2274,10 @@
       </c>
       <c r="E19" s="12">
         <f>Oktober!E23</f>
-        <v>-155.51666666666659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-120.32666666666664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -2248,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -2259,7 +2299,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -2270,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -2278,7 +2318,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-238.7999999999999</v>
+        <v>-203.60999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2297,19 +2337,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="25.7109375" customWidth="1"/>
+    <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2326,7 +2366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2341,7 +2381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2356,7 +2396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2371,7 +2411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2386,7 +2426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2398,7 +2438,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2410,7 +2450,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2422,7 +2462,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2430,7 +2470,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2438,7 +2478,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2446,7 +2486,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2454,7 +2494,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2462,7 +2502,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2470,7 +2510,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2478,7 +2518,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2486,7 +2526,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2494,12 +2534,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="11" t="s">
@@ -2507,10 +2547,10 @@
       </c>
       <c r="E19" s="12">
         <f>November!E23</f>
-        <v>-238.7999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-203.60999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="11" t="s">
@@ -2521,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="11" t="s">
@@ -2532,7 +2572,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="11" t="s">
@@ -2543,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7" t="s">
@@ -2551,7 +2591,7 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-322.0833333333332</v>
+        <v>-286.89333333333326</v>
       </c>
     </row>
   </sheetData>
@@ -2570,52 +2610,52 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1">
-        <f>SUM(Juni!E20,Juli!E20,Augustus!E20,September!E20,Oktober!E20,November!E20,December!E20)</f>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <f>SUM(Juni!E26,Juli!E20,Augustus!E20,September!E20,Oktober!E20,November!E20,December!E20)</f>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(Juni!E21,Juli!E21,Augustus!E21,September!E21,Oktober!E21,November!E21,December!E21)</f>
-        <v>582.98333333333323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>SUM(Juni!E27,Juli!E21,Augustus!E21,September!E21,Oktober!E21,November!E21,December!E21)</f>
+        <v>557.99333333333323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(Juni!E22,Juli!E22,Augustus!E22,September!E22,Oktober!E22,November!E22,December!E22)</f>
-        <v>192.54000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f>SUM(Juni!E28,Juli!E22,Augustus!E22,September!E22,Oktober!E22,November!E22,December!E22)</f>
+        <v>239.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1">
         <f>B1-B2-B3</f>
-        <v>-336.52333333333326</v>
+        <v>-301.33333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/Lasten.xlsx
+++ b/Lasten.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damian/School/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5883F2A5-2574-2145-AD51-C00A7F0A6647}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="19524"/>
   </bookViews>
   <sheets>
     <sheet name="Juni" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="December" sheetId="7" r:id="rId7"/>
     <sheet name="Jaar overzicht" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
   <si>
     <t>Discord</t>
   </si>
@@ -158,14 +157,36 @@
   </si>
   <si>
     <t>Sjoerd eten Rick</t>
+  </si>
+  <si>
+    <t>Eind v/d maand verwacht</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>NS-Beverwijk</t>
+  </si>
+  <si>
+    <t>Vomar</t>
+  </si>
+  <si>
+    <t>Thuisbezorgd</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Pin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -312,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -320,17 +341,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Goed" xfId="1" builtinId="26"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -641,49 +663,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>4.99</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="12">
         <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="12">
         <v>50</v>
       </c>
       <c r="F2" t="s">
@@ -693,20 +715,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>0.83333333333333337</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="12">
         <v>6.7</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="12">
         <v>95</v>
       </c>
       <c r="F3" t="s">
@@ -716,20 +738,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
         <v>3.99</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="12">
         <v>26.75</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="12">
         <v>81</v>
       </c>
       <c r="F4" t="s">
@@ -739,20 +761,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
         <v>24.5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="12">
         <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="12">
         <v>40</v>
       </c>
       <c r="F5" t="s">
@@ -762,20 +784,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>9.99</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="12">
         <v>19.989999999999998</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="12">
         <v>45</v>
       </c>
       <c r="F6" t="s">
@@ -785,176 +807,223 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>13.99</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="12">
         <v>13.7</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="12">
         <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
-        <f>SUM(1.75, 1.8)</f>
-        <v>3.55</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="12">
+        <f>SUM(1.75, 1.8, 0.7, 0.7)</f>
+        <v>4.95</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
         <v>8</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
-        <v>1.52</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>32.82</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
         <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
         <v>14.65</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="12">
         <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="12">
         <v>8.5500000000000007</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="12">
         <v>7</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="1">
-        <v>2.2000000000000002</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="12">
+        <v>8.8000000000000007</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
-        <v>26.1</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="12">
+        <f>SUM(26.1, 5.25)</f>
+        <v>31.35</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="12">
         <v>8.83</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="12">
         <v>9.6</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="1">
-        <v>4.0999999999999996</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="12">
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="1">
-        <v>23.1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="12">
+        <v>11.34</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="12">
+        <v>2.39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="12">
+        <v>12.75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="12">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="12">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="12">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="12">
         <v>14.44</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="12">
         <f>SUM(E2:E17)</f>
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="12">
         <f>SUM(A2:A18)</f>
         <v>58.293333333333337</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="12">
         <f>SUM(C2:C100)</f>
-        <v>239.34</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>342.09</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E29" s="13">
         <f>SUM(E25:E26)-(E27)-(E28)</f>
-        <v>212.80666666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>110.05666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E29">
     <cfRule type="colorScale" priority="1">
@@ -972,36 +1041,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1016,7 +1085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1031,7 +1100,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1046,7 +1115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1061,7 +1130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1073,7 +1142,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1085,7 +1154,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1097,7 +1166,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1105,7 +1174,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1113,7 +1182,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1121,7 +1190,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1129,7 +1198,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1137,7 +1206,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1145,7 +1214,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1153,7 +1222,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1161,7 +1230,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1169,65 +1238,71 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>Juni!E29</f>
-        <v>212.80666666666664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>Juni!E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>129.52333333333331</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
@@ -1245,36 +1320,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1289,7 +1364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1304,7 +1379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1319,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1334,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1346,7 +1421,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1358,7 +1433,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1370,7 +1445,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1378,7 +1453,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1386,7 +1461,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1394,7 +1469,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1402,7 +1477,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1410,7 +1485,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1418,7 +1493,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1426,7 +1501,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1434,7 +1509,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1442,72 +1517,78 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>Juli!E23</f>
-        <v>129.52333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>Juli!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>46.239999999999995</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="100"/>
+        <cfvo type="num" val="200"/>
         <color rgb="FFFF0000"/>
         <color rgb="FF00B050"/>
       </colorScale>
@@ -1518,36 +1599,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1562,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1577,7 +1658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1592,7 +1673,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1607,7 +1688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1619,7 +1700,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1631,7 +1712,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1643,7 +1724,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1651,7 +1732,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1659,7 +1740,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1667,7 +1748,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1675,7 +1756,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1683,7 +1764,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1691,7 +1772,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1699,7 +1780,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1707,7 +1788,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1715,65 +1796,71 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>Augustus!E23</f>
-        <v>46.239999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>Augustus!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-37.043333333333322</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
@@ -1791,36 +1878,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1835,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1850,7 +1937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1865,7 +1952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1880,7 +1967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1892,7 +1979,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1904,7 +1991,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1916,7 +2003,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1924,7 +2011,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1932,7 +2019,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1940,7 +2027,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1948,7 +2035,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1956,7 +2043,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1964,7 +2051,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1972,7 +2059,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1980,7 +2067,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1988,65 +2075,71 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>September!E23</f>
-        <v>-37.043333333333322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>September!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-120.32666666666664</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
@@ -2064,36 +2157,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2108,7 +2201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2123,7 +2216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2138,7 +2231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2153,7 +2246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2165,7 +2258,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2177,7 +2270,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2189,7 +2282,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2197,7 +2290,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2205,7 +2298,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2213,7 +2306,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2221,7 +2314,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2229,7 +2322,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2237,7 +2330,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2245,7 +2338,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2253,7 +2346,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2261,65 +2354,71 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>Oktober!E23</f>
-        <v>-120.32666666666664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>Oktober!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-203.60999999999996</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E23">
@@ -2337,36 +2436,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2381,7 +2480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2396,7 +2495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2411,7 +2510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2426,7 +2525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2438,7 +2537,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2450,7 +2549,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2462,7 +2561,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2470,7 +2569,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2478,7 +2577,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2486,7 +2585,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2494,7 +2593,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2502,7 +2601,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2510,7 +2609,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2518,7 +2617,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2526,7 +2625,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2534,69 +2633,109 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12">
-        <f>November!E23</f>
-        <v>-203.60999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="10">
+        <f>November!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f>SUM(A2:A18)</f>
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="D23" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-286.89333333333326</v>
-      </c>
+        <v>-83.283333333333317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="11"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="200"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="200"/>
@@ -2610,19 +2749,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2631,7 +2770,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2640,22 +2779,22 @@
         <v>557.99333333333323</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1">
         <f>SUM(Juni!E28,Juli!E22,Augustus!E22,September!E22,Oktober!E22,November!E22,December!E22)</f>
-        <v>239.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>342.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1">
         <f>B1-B2-B3</f>
-        <v>-301.33333333333326</v>
+        <v>-404.0833333333332</v>
       </c>
     </row>
   </sheetData>

--- a/Lasten.xlsx
+++ b/Lasten.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian Dibbets\Documents\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="38400" windowHeight="19524"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="38400" windowHeight="19530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Juni" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t>Discord</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Pin</t>
+  </si>
+  <si>
+    <t>Leon kermis</t>
+  </si>
+  <si>
+    <t>Deen</t>
+  </si>
+  <si>
+    <t>Broer Zondag</t>
+  </si>
+  <si>
+    <t>Broer zondag</t>
+  </si>
+  <si>
+    <t>Kleding geld</t>
   </si>
 </sst>
 </file>
@@ -333,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -349,6 +364,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -666,22 +682,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="10" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
@@ -692,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>4.99</v>
       </c>
@@ -715,7 +731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>0.83333333333333337</v>
       </c>
@@ -738,7 +754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3.99</v>
       </c>
@@ -761,7 +777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>24.5</v>
       </c>
@@ -784,7 +800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>9.99</v>
       </c>
@@ -807,7 +823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>13.99</v>
       </c>
@@ -827,7 +843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="12">
         <f>SUM(1.75, 1.8, 0.7, 0.7)</f>
         <v>4.95</v>
@@ -842,7 +858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="12">
         <v>32.82</v>
       </c>
@@ -856,7 +872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="12">
         <v>14.65</v>
       </c>
@@ -870,7 +886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="12">
         <v>8.5500000000000007</v>
       </c>
@@ -884,15 +900,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="12">
         <v>8.8000000000000007</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="12">
         <f>SUM(26.1, 5.25)</f>
         <v>31.35</v>
@@ -901,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="12">
         <v>8.83</v>
       </c>
@@ -909,7 +928,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="12">
         <v>9.6</v>
       </c>
@@ -917,7 +936,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="12">
         <v>10</v>
       </c>
@@ -925,7 +944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="12">
         <v>11.34</v>
       </c>
@@ -933,7 +952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="12">
         <v>2.39</v>
       </c>
@@ -941,7 +960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="12">
         <v>12.75</v>
       </c>
@@ -949,7 +968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
         <v>7.5</v>
       </c>
@@ -957,12 +976,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
         <v>6.95</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="12">
         <v>30</v>
       </c>
@@ -970,12 +989,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="12">
         <v>4.47</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>13</v>
       </c>
@@ -983,16 +1007,16 @@
         <v>14.44</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="12">
         <f>SUM(E2:E17)</f>
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>11</v>
       </c>
@@ -1001,27 +1025,30 @@
         <v>58.293333333333337</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="12">
         <f>SUM(C2:C100)</f>
-        <v>342.09</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>373.09</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="13">
         <f>SUM(E25:E26)-(E27)-(E28)</f>
-        <v>110.05666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>110.05666666666673</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>14</v>
+      </c>
+      <c r="E30" s="12">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1044,16 +1071,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1066,71 +1093,93 @@
         <v>7</v>
       </c>
       <c r="F1" s="8"/>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>14.71</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="15">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1142,7 +1191,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1154,7 +1203,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1166,7 +1215,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1174,7 +1223,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1182,7 +1231,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1190,7 +1239,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1198,7 +1247,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1206,7 +1255,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1214,7 +1263,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1222,7 +1271,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1230,7 +1279,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1238,12 +1287,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -1251,10 +1300,10 @@
       </c>
       <c r="E19" s="10">
         <f>Juni!E30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -1262,10 +1311,10 @@
       </c>
       <c r="E20" s="10">
         <f>SUM(E2:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -1276,7 +1325,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -1284,10 +1333,10 @@
       </c>
       <c r="E22" s="10">
         <f>SUM(C2:C17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -1295,10 +1344,10 @@
       </c>
       <c r="E23" s="10">
         <f>SUM(E19:E20)-(E21)-(E22)</f>
-        <v>-83.283333333333317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74.206666666666706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -1327,12 +1376,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1364,7 +1413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1379,7 +1428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1394,7 +1443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1409,7 +1458,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1421,7 +1470,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1433,7 +1482,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1445,7 +1494,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1453,7 +1502,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1461,7 +1510,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1469,7 +1518,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1477,7 +1526,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1485,7 +1534,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1493,7 +1542,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1501,7 +1550,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1509,7 +1558,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1517,12 +1566,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -1533,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -1544,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -1555,7 +1604,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -1566,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -1577,7 +1626,7 @@
         <v>-83.283333333333317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -1606,12 +1655,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1643,7 +1692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1658,7 +1707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1673,7 +1722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1688,7 +1737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1700,7 +1749,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1712,7 +1761,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -1724,7 +1773,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1732,7 +1781,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1740,7 +1789,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1748,7 +1797,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -1756,7 +1805,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -1764,7 +1813,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -1772,7 +1821,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -1780,7 +1829,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -1788,7 +1837,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1796,12 +1845,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -1812,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -1823,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -1834,7 +1883,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -1845,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -1856,7 +1905,7 @@
         <v>-83.283333333333317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -1885,12 +1934,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -1922,7 +1971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -1937,7 +1986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -1952,7 +2001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -1967,7 +2016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -1979,7 +2028,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -1991,7 +2040,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2003,7 +2052,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2011,7 +2060,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2019,7 +2068,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2027,7 +2076,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2035,7 +2084,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2043,7 +2092,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2051,7 +2100,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2059,7 +2108,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2067,7 +2116,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2075,12 +2124,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -2091,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -2102,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -2113,7 +2162,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -2124,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -2135,7 +2184,7 @@
         <v>-83.283333333333317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -2164,12 +2213,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2201,7 +2250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2216,7 +2265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2231,7 +2280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2246,7 +2295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2258,7 +2307,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2270,7 +2319,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2282,7 +2331,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2290,7 +2339,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2298,7 +2347,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2306,7 +2355,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2314,7 +2363,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2322,7 +2371,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2330,7 +2379,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2338,7 +2387,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2346,7 +2395,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2354,12 +2403,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -2370,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -2381,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -2392,7 +2441,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -2403,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -2414,7 +2463,7 @@
         <v>-83.283333333333317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
@@ -2443,12 +2492,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="25.6640625" customWidth="1"/>
+    <col min="1" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -2465,7 +2514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4.99</v>
       </c>
@@ -2480,7 +2529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>24.99</v>
       </c>
@@ -2495,7 +2544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -2510,7 +2559,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3.99</v>
       </c>
@@ -2525,7 +2574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>24.5</v>
       </c>
@@ -2537,7 +2586,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9.99</v>
       </c>
@@ -2549,7 +2598,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>13.99</v>
       </c>
@@ -2561,7 +2610,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -2569,7 +2618,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -2577,7 +2626,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -2585,7 +2634,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
@@ -2593,7 +2642,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
@@ -2601,7 +2650,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
@@ -2609,7 +2658,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2"/>
@@ -2617,7 +2666,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2"/>
@@ -2625,7 +2674,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -2633,12 +2682,12 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
@@ -2649,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
@@ -2660,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
@@ -2671,7 +2720,7 @@
         <v>83.283333333333317</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="9" t="s">
@@ -2682,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="9" t="s">
@@ -2693,33 +2742,33 @@
         <v>-83.283333333333317</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="11"/>
       <c r="E32" s="6"/>
     </row>
@@ -2756,21 +2805,21 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="25.6640625" customWidth="1"/>
+    <col min="1" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(Juni!E26,Juli!E20,Augustus!E20,September!E20,Oktober!E20,November!E20,December!E20)</f>
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2779,22 +2828,22 @@
         <v>557.99333333333323</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1">
         <f>SUM(Juni!E28,Juli!E22,Augustus!E22,September!E22,Oktober!E22,November!E22,December!E22)</f>
-        <v>342.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>505.59999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="1">
         <f>B1-B2-B3</f>
-        <v>-404.0833333333332</v>
+        <v>-326.59333333333319</v>
       </c>
     </row>
   </sheetData>
